--- a/CommonDataSet.xlsx
+++ b/CommonDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoonjoungchoi/Dropbox/0Kids/0iSquareed_CollegeSoup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C3DAE9-CD2A-894D-85C4-A65EDB9DFD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FC54E5-44C8-F243-983A-57E7FC6BD166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14060" yWindow="500" windowWidth="23540" windowHeight="19440" xr2:uid="{4B14E055-5E8E-754C-AD34-75191EE151C7}"/>
   </bookViews>
@@ -1950,7 +1950,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2020,6 +2020,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,7 +2131,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2689,6 +2695,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -3012,10 +3020,10 @@
   <dimension ref="A1:FM382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="CZ77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DH92" sqref="DH92"/>
+      <selection pane="bottomRight" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20627,11 +20635,11 @@
       <c r="DD91" s="12"/>
     </row>
     <row r="92" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="241" t="s">
         <v>540</v>
       </c>
-      <c r="B92" s="1">
-        <v>2022</v>
+      <c r="B92" s="242">
+        <v>2021</v>
       </c>
       <c r="C92" s="142" t="s">
         <v>542</v>

--- a/CommonDataSet.xlsx
+++ b/CommonDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoonjoungchoi/Dropbox/0Kids/0iSquareed_CollegeSoup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FC54E5-44C8-F243-983A-57E7FC6BD166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D9DBF-9AE1-7F43-9AB1-A0F591A6F8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="500" windowWidth="23540" windowHeight="19440" xr2:uid="{4B14E055-5E8E-754C-AD34-75191EE151C7}"/>
+    <workbookView xWindow="12080" yWindow="500" windowWidth="25520" windowHeight="20560" xr2:uid="{4B14E055-5E8E-754C-AD34-75191EE151C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3020,10 +3020,10 @@
   <dimension ref="A1:FM382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="CK310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomRight" activeCell="CQ1" sqref="CL1:CQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64452,7 +64452,7 @@
       <c r="B315" s="216">
         <v>2022</v>
       </c>
-      <c r="C315" s="216" t="s">
+      <c r="C315" s="104" t="s">
         <v>457</v>
       </c>
       <c r="D315" t="s">
@@ -64529,6 +64529,21 @@
       </c>
       <c r="CK315" s="216">
         <v>16</v>
+      </c>
+      <c r="CM315" s="216">
+        <v>5742</v>
+      </c>
+      <c r="CN315" s="216">
+        <v>5742</v>
+      </c>
+      <c r="CO315" s="216">
+        <v>17622</v>
+      </c>
+      <c r="CP315" s="216">
+        <v>1696</v>
+      </c>
+      <c r="CQ315" s="216">
+        <v>16682</v>
       </c>
     </row>
     <row r="316" spans="1:120" s="216" customFormat="1" x14ac:dyDescent="0.2">
@@ -71222,6 +71237,7 @@
     <hyperlink ref="C327" r:id="rId80" xr:uid="{D694950C-03E0-EA48-8EEF-46EA06F71D4C}"/>
     <hyperlink ref="C339" r:id="rId81" xr:uid="{265B93C0-10B9-0745-90B4-C52C71EBA278}"/>
     <hyperlink ref="C92" r:id="rId82" xr:uid="{8DB0E1E0-DA1B-0941-9ABF-A6FBC68E4DBA}"/>
+    <hyperlink ref="C315" r:id="rId83" xr:uid="{5497C4A4-88EE-6847-9BFC-86FA1588E009}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
